--- a/InterlockingDemo/Datas/InterlockingTable.xlsx
+++ b/InterlockingDemo/Datas/InterlockingTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\InterLockingDemo\InterlockingDemo\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE28328C-9C97-4D10-AAF7-F96885FA5A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="-105" windowWidth="18465" windowHeight="11025"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,10 +407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">U U </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>D3</t>
     </r>
@@ -854,10 +851,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>U U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D4、X3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1176,13 +1169,21 @@
   </si>
   <si>
     <t>方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UU </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1331,28 +1332,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1372,6 +1355,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1686,109 +1687,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.75" style="2" customWidth="1"/>
-    <col min="11" max="12" width="5.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.77734375" style="2" customWidth="1"/>
+    <col min="11" max="12" width="5.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.625" style="4"/>
+    <col min="14" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:12" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>42</v>
@@ -1800,15 +1801,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+    <row r="4" spans="1:12" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -1817,7 +1818,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>44</v>
@@ -1832,44 +1833,44 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+    <row r="5" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
+    <row r="6" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1883,25 +1884,25 @@
         <v>31</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+    <row r="7" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1915,24 +1916,24 @@
         <v>31</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+    <row r="8" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1949,312 +1950,312 @@
         <v>31</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>58</v>
+      <c r="C15" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17" t="s">
         <v>63</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="J17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>14</v>
@@ -2263,371 +2264,364 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+    <row r="19" spans="1:12" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K25" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="H29" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="I29" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="G30" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="J30" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="A1:C1"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="B9:B14"/>
@@ -2639,6 +2633,13 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="C15:C16"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InterlockingDemo/Datas/InterlockingTable.xlsx
+++ b/InterlockingDemo/Datas/InterlockingTable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\InterLockingDemo\InterlockingDemo\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE28328C-9C97-4D10-AAF7-F96885FA5A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -938,9 +937,6 @@
     <t>ⅡBG、2DG、10DG、4G</t>
   </si>
   <si>
-    <t>2/4、10、5、1/3、</t>
-  </si>
-  <si>
     <t>ⅡBG、2DG、10DG、ⅡG、5DG、1DG、ⅡAG</t>
   </si>
   <si>
@@ -1177,13 +1173,17 @@
   </si>
   <si>
     <t>UU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/4、10、5、1/3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1356,16 +1356,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1687,33 +1687,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.77734375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="5.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.75" style="2" customWidth="1"/>
+    <col min="11" max="12" width="5.125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="4"/>
+    <col min="14" max="16384" width="8.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1723,10 +1723,10 @@
       <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="15"/>
+      <c r="G1" s="17"/>
       <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
@@ -1736,12 +1736,12 @@
       <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1763,27 +1763,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>47</v>
@@ -1801,15 +1801,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -1833,10 +1833,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18" t="s">
+    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1861,16 +1861,16 @@
         <v>115</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
+    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>31</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>34</v>
@@ -1893,16 +1893,16 @@
         <v>114</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
+    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1925,15 +1925,15 @@
         <v>114</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+    <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>46</v>
@@ -1962,14 +1962,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1982,10 +1982,10 @@
         <v>70</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>106</v>
@@ -1994,10 +1994,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
@@ -2020,10 +2020,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>129</v>
@@ -2046,10 +2046,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2074,10 +2074,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="2" t="s">
         <v>55</v>
       </c>
@@ -2100,9 +2100,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
+    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
@@ -2119,23 +2119,23 @@
         <v>31</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>126</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2163,13 +2163,13 @@
         <v>43</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
@@ -2192,16 +2192,16 @@
         <v>62</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2229,13 +2229,13 @@
         <v>43</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>61</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>14</v>
@@ -2264,10 +2264,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="2" t="s">
         <v>37</v>
       </c>
@@ -2284,22 +2284,22 @@
         <v>65</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>68</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>67</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>69</v>
@@ -2325,13 +2325,13 @@
         <v>39</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2359,10 +2359,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="2" t="s">
         <v>102</v>
       </c>
@@ -2385,13 +2385,13 @@
         <v>78</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15" t="s">
         <v>79</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2410,7 +2410,7 @@
         <v>83</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>75</v>
@@ -2419,10 +2419,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="2" t="s">
         <v>102</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>82</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>78</v>
@@ -2448,9 +2448,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="17"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>88</v>
       </c>
@@ -2476,12 +2476,12 @@
         <v>97</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="17"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2" t="s">
         <v>89</v>
       </c>
@@ -2507,17 +2507,17 @@
         <v>97</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>85</v>
@@ -2529,7 +2529,7 @@
         <v>26</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>87</v>
@@ -2538,15 +2538,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>86</v>
@@ -2555,73 +2555,80 @@
         <v>26</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="17"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="I29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="J30" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="B9:B14"/>
@@ -2633,13 +2640,6 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InterlockingDemo/Datas/InterlockingTable.xlsx
+++ b/InterlockingDemo/Datas/InterlockingTable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\InterLockingDemo\InterlockingDemo\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\联锁表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="1770" yWindow="-105" windowWidth="18465" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="183">
   <si>
     <t>进路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1051,14 +1051,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>向编1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向编2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>至3股道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1172,11 +1164,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">UU </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>UU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2/4、10、5、1/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向编组线1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向编组线2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SⅡD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉方向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1310,7 +1350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1330,9 +1370,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1359,13 +1396,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1691,7 +1734,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1711,79 +1754,83 @@
     <col min="14" max="16384" width="8.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="7" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="17"/>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="15" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="18"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>47</v>
@@ -1800,16 +1847,19 @@
       <c r="L3" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="M3" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -1832,11 +1882,14 @@
       <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16" t="s">
+      <c r="M4" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1866,11 +1919,14 @@
       <c r="L5" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
+      <c r="M5" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1898,11 +1954,14 @@
       <c r="L6" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="M6" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1930,10 +1989,13 @@
       <c r="L7" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="M7" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1950,7 +2012,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>46</v>
@@ -1961,15 +2023,18 @@
       <c r="L8" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="M8" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1982,10 +2047,10 @@
         <v>70</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>106</v>
@@ -1993,11 +2058,14 @@
       <c r="J9" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="M9" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
@@ -2019,11 +2087,14 @@
       <c r="J10" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="M10" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2034,7 +2105,7 @@
         <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>129</v>
@@ -2045,11 +2116,14 @@
       <c r="J11" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16" t="s">
+      <c r="M11" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2073,11 +2147,14 @@
       <c r="J12" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="M12" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="2" t="s">
         <v>55</v>
       </c>
@@ -2099,10 +2176,13 @@
       <c r="J13" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="M13" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
@@ -2119,7 +2199,7 @@
         <v>31</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>126</v>
@@ -2127,15 +2207,18 @@
       <c r="J14" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="M14" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2165,11 +2248,14 @@
       <c r="L15" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="M15" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
@@ -2197,11 +2283,14 @@
       <c r="L16" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15" t="s">
+      <c r="M16" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2231,11 +2320,14 @@
       <c r="L17" s="5" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="M17" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
@@ -2263,11 +2355,14 @@
       <c r="L18" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="M18" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="2" t="s">
         <v>37</v>
       </c>
@@ -2284,7 +2379,7 @@
         <v>65</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>68</v>
@@ -2295,11 +2390,14 @@
       <c r="L19" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
+      <c r="M19" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
@@ -2316,7 +2414,7 @@
         <v>67</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>69</v>
@@ -2327,11 +2425,14 @@
       <c r="L20" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15" t="s">
+      <c r="M20" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2358,11 +2459,14 @@
       <c r="K21" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
+      <c r="M21" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="2" t="s">
         <v>102</v>
       </c>
@@ -2387,11 +2491,14 @@
       <c r="K22" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15" t="s">
+      <c r="M22" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18" t="s">
         <v>79</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2418,11 +2525,14 @@
       <c r="K23" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+      <c r="M23" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="2" t="s">
         <v>102</v>
       </c>
@@ -2447,12 +2557,15 @@
       <c r="K24" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="15"/>
+      <c r="M24" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="19"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="2" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>101</v>
@@ -2478,10 +2591,13 @@
       <c r="K25" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="15"/>
+      <c r="M25" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="2" t="s">
         <v>89</v>
       </c>
@@ -2509,15 +2625,18 @@
       <c r="K26" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15" t="s">
+      <c r="M26" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18" t="s">
         <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>85</v>
@@ -2537,13 +2656,16 @@
       <c r="J27" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+      <c r="M27" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="19"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>147</v>
@@ -2563,10 +2685,13 @@
       <c r="J28" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="15"/>
+      <c r="M28" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="19"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="2" t="s">
         <v>141</v>
       </c>
@@ -2591,15 +2716,18 @@
       <c r="J29" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="15"/>
+      <c r="M29" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="5" t="s">
         <v>152</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>153</v>
@@ -2619,16 +2747,12 @@
       <c r="J30" s="5" t="s">
         <v>151</v>
       </c>
+      <c r="M30" s="14" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="A1:C1"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="B9:B14"/>
@@ -2640,6 +2764,13 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="C15:C16"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
